--- a/analysis/metadata/P08_4/P08_4_minimal_metadata.xlsx
+++ b/analysis/metadata/P08_4/P08_4_minimal_metadata.xlsx
@@ -473,7 +473,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>2020-08-15</t>
+          <t>15/08/2020 00:00</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -498,7 +498,7 @@
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>2020-08-15</t>
+          <t>15/08/2020 00:00</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
@@ -546,7 +546,7 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>2020-09-02</t>
+          <t>02/09/2020 09:02</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
@@ -571,7 +571,7 @@
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>2020-09-02</t>
+          <t>02/09/2020 09:02</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
@@ -624,7 +624,7 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>2020-08-21</t>
+          <t>21/08/2020 00:00</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
@@ -649,7 +649,7 @@
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>2020-08-21</t>
+          <t>21/08/2020 00:00</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
@@ -702,7 +702,7 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>2020-08-03</t>
+          <t>03/08/2020 00:00</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
@@ -727,7 +727,7 @@
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>2020-08-03</t>
+          <t>03/08/2020 00:00</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
@@ -780,7 +780,7 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>2020-08-16</t>
+          <t>16/08/2020 00:00</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
@@ -805,7 +805,7 @@
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>2020-08-16</t>
+          <t>16/08/2020 00:00</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
@@ -858,7 +858,7 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>2020-08-18</t>
+          <t>18/08/2020 00:00</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
@@ -883,7 +883,7 @@
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>2020-08-18</t>
+          <t>18/08/2020 00:00</t>
         </is>
       </c>
       <c r="N7" t="inlineStr">
@@ -936,7 +936,7 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>2020-08-09</t>
+          <t>09/08/2020 00:00</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
@@ -961,7 +961,7 @@
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>2020-08-09</t>
+          <t>09/08/2020 00:00</t>
         </is>
       </c>
       <c r="N8" t="inlineStr">
@@ -1014,7 +1014,7 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>2020-08-07</t>
+          <t>07/08/2020 00:00</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
@@ -1039,7 +1039,7 @@
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>2020-08-07</t>
+          <t>07/08/2020 00:00</t>
         </is>
       </c>
       <c r="N9" t="inlineStr">
@@ -1092,7 +1092,7 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>2020-08-13</t>
+          <t>13/08/2020 00:00</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
@@ -1117,7 +1117,7 @@
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>2020-08-13</t>
+          <t>13/08/2020 00:00</t>
         </is>
       </c>
       <c r="N10" t="inlineStr">
@@ -1165,7 +1165,7 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>2020-08-23</t>
+          <t>23/08/2020 10:56</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
@@ -1190,7 +1190,7 @@
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>2020-08-23</t>
+          <t>23/08/2020 10:56</t>
         </is>
       </c>
       <c r="N11" t="inlineStr">
@@ -1238,7 +1238,7 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>2020-08-23</t>
+          <t>23/08/2020 13:49</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
@@ -1263,7 +1263,7 @@
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>2020-08-23</t>
+          <t>23/08/2020 13:49</t>
         </is>
       </c>
       <c r="N12" t="inlineStr">
@@ -1311,7 +1311,7 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>2020-08-27</t>
+          <t>27/08/2020 09:23</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
@@ -1336,7 +1336,7 @@
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>2020-08-27</t>
+          <t>27/08/2020 09:23</t>
         </is>
       </c>
       <c r="N13" t="inlineStr">
@@ -1384,7 +1384,7 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>2020-08-25</t>
+          <t>25/08/2020 07:56</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
@@ -1409,7 +1409,7 @@
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>2020-08-25</t>
+          <t>25/08/2020 07:56</t>
         </is>
       </c>
       <c r="N14" t="inlineStr">
@@ -1462,7 +1462,7 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>2020-08-11</t>
+          <t>11/08/2020 00:00</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
@@ -1487,7 +1487,7 @@
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>2020-08-11</t>
+          <t>11/08/2020 00:00</t>
         </is>
       </c>
       <c r="N15" t="inlineStr">
@@ -1540,7 +1540,7 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>2020-08-09</t>
+          <t>09/08/2020 13:55</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
@@ -1565,7 +1565,7 @@
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>2020-08-09</t>
+          <t>09/08/2020 13:55</t>
         </is>
       </c>
       <c r="N16" t="inlineStr">
@@ -1618,7 +1618,7 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>2020-08-18</t>
+          <t>18/08/2020 08:42</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
@@ -1643,7 +1643,7 @@
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>2020-08-18</t>
+          <t>18/08/2020 08:42</t>
         </is>
       </c>
       <c r="N17" t="inlineStr">
@@ -1696,7 +1696,7 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>2020-08-21</t>
+          <t>21/08/2020 00:00</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
@@ -1721,7 +1721,7 @@
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>2020-08-21</t>
+          <t>21/08/2020 00:00</t>
         </is>
       </c>
       <c r="N18" t="inlineStr">
@@ -1774,7 +1774,7 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>2020-08-21</t>
+          <t>21/08/2020 00:00</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
@@ -1799,7 +1799,7 @@
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>2020-08-21</t>
+          <t>21/08/2020 00:00</t>
         </is>
       </c>
       <c r="N19" t="inlineStr">
@@ -1847,7 +1847,7 @@
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>2020-08-29</t>
+          <t>29/08/2020 06:38</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
@@ -1872,7 +1872,7 @@
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>2020-08-29</t>
+          <t>29/08/2020 06:38</t>
         </is>
       </c>
       <c r="N20" t="inlineStr">
@@ -1925,7 +1925,7 @@
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>2020-08-20</t>
+          <t>20/08/2020 00:00</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
@@ -1950,7 +1950,7 @@
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>2020-08-20</t>
+          <t>20/08/2020 00:00</t>
         </is>
       </c>
       <c r="N21" t="inlineStr">
@@ -1998,7 +1998,7 @@
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>2020-08-30</t>
+          <t>30/08/2020 13:22</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
@@ -2023,7 +2023,7 @@
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>2020-08-30</t>
+          <t>30/08/2020 13:22</t>
         </is>
       </c>
       <c r="N22" t="inlineStr">
@@ -2076,7 +2076,7 @@
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>2020-08-15</t>
+          <t>15/08/2020 00:00</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
@@ -2101,7 +2101,7 @@
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>2020-08-15</t>
+          <t>15/08/2020 00:00</t>
         </is>
       </c>
       <c r="N23" t="inlineStr">
@@ -2149,7 +2149,7 @@
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>2020-08-30</t>
+          <t>30/08/2020 10:53</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
@@ -2174,7 +2174,7 @@
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>2020-08-30</t>
+          <t>30/08/2020 10:53</t>
         </is>
       </c>
       <c r="N24" t="inlineStr">
@@ -2227,7 +2227,7 @@
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>2020-08-15</t>
+          <t>15/08/2020 00:00</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
@@ -2252,7 +2252,7 @@
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>2020-08-15</t>
+          <t>15/08/2020 00:00</t>
         </is>
       </c>
       <c r="N25" t="inlineStr">
@@ -2300,7 +2300,7 @@
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>2020-09-05</t>
+          <t>05/09/2020 10:28</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
@@ -2325,7 +2325,7 @@
       </c>
       <c r="M26" t="inlineStr">
         <is>
-          <t>2020-09-05</t>
+          <t>05/09/2020 10:28</t>
         </is>
       </c>
       <c r="N26" t="inlineStr">
@@ -2373,7 +2373,7 @@
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>2020-09-06</t>
+          <t>06/09/2020 11:13</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
@@ -2398,7 +2398,7 @@
       </c>
       <c r="M27" t="inlineStr">
         <is>
-          <t>2020-09-06</t>
+          <t>06/09/2020 11:13</t>
         </is>
       </c>
       <c r="N27" t="inlineStr">
@@ -2446,7 +2446,7 @@
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>2020-09-06</t>
+          <t>06/09/2020 06:21</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
@@ -2471,7 +2471,7 @@
       </c>
       <c r="M28" t="inlineStr">
         <is>
-          <t>2020-09-06</t>
+          <t>06/09/2020 06:21</t>
         </is>
       </c>
       <c r="N28" t="inlineStr">

--- a/analysis/metadata/P08_4/P08_4_minimal_metadata.xlsx
+++ b/analysis/metadata/P08_4/P08_4_minimal_metadata.xlsx
@@ -473,7 +473,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>15/08/2020 00:00</t>
+          <t>2020-08-15</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -498,7 +498,7 @@
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>15/08/2020 00:00</t>
+          <t>2020-08-15</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
@@ -546,7 +546,7 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>02/09/2020 09:02</t>
+          <t>2020-09-02</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
@@ -571,7 +571,7 @@
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>02/09/2020 09:02</t>
+          <t>2020-09-02</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
@@ -624,7 +624,7 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>21/08/2020 00:00</t>
+          <t>2020-08-21</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
@@ -649,7 +649,7 @@
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>21/08/2020 00:00</t>
+          <t>2020-08-21</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
@@ -702,7 +702,7 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>03/08/2020 00:00</t>
+          <t>2020-08-03</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
@@ -727,7 +727,7 @@
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>03/08/2020 00:00</t>
+          <t>2020-08-03</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
@@ -780,7 +780,7 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>16/08/2020 00:00</t>
+          <t>2020-08-16</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
@@ -805,7 +805,7 @@
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>16/08/2020 00:00</t>
+          <t>2020-08-16</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
@@ -858,7 +858,7 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>18/08/2020 00:00</t>
+          <t>2020-08-18</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
@@ -883,7 +883,7 @@
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>18/08/2020 00:00</t>
+          <t>2020-08-18</t>
         </is>
       </c>
       <c r="N7" t="inlineStr">
@@ -936,7 +936,7 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>09/08/2020 00:00</t>
+          <t>2020-08-09</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
@@ -961,7 +961,7 @@
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>09/08/2020 00:00</t>
+          <t>2020-08-09</t>
         </is>
       </c>
       <c r="N8" t="inlineStr">
@@ -1014,7 +1014,7 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>07/08/2020 00:00</t>
+          <t>2020-08-07</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
@@ -1039,7 +1039,7 @@
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>07/08/2020 00:00</t>
+          <t>2020-08-07</t>
         </is>
       </c>
       <c r="N9" t="inlineStr">
@@ -1092,7 +1092,7 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>13/08/2020 00:00</t>
+          <t>2020-08-13</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
@@ -1117,7 +1117,7 @@
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>13/08/2020 00:00</t>
+          <t>2020-08-13</t>
         </is>
       </c>
       <c r="N10" t="inlineStr">
@@ -1165,7 +1165,7 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>23/08/2020 10:56</t>
+          <t>2020-08-23</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
@@ -1190,7 +1190,7 @@
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>23/08/2020 10:56</t>
+          <t>2020-08-23</t>
         </is>
       </c>
       <c r="N11" t="inlineStr">
@@ -1238,7 +1238,7 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>23/08/2020 13:49</t>
+          <t>2020-08-23</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
@@ -1263,7 +1263,7 @@
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>23/08/2020 13:49</t>
+          <t>2020-08-23</t>
         </is>
       </c>
       <c r="N12" t="inlineStr">
@@ -1311,7 +1311,7 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>27/08/2020 09:23</t>
+          <t>2020-08-27</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
@@ -1336,7 +1336,7 @@
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>27/08/2020 09:23</t>
+          <t>2020-08-27</t>
         </is>
       </c>
       <c r="N13" t="inlineStr">
@@ -1384,7 +1384,7 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>25/08/2020 07:56</t>
+          <t>2020-08-25</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
@@ -1409,7 +1409,7 @@
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>25/08/2020 07:56</t>
+          <t>2020-08-25</t>
         </is>
       </c>
       <c r="N14" t="inlineStr">
@@ -1462,7 +1462,7 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>11/08/2020 00:00</t>
+          <t>2020-08-11</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
@@ -1487,7 +1487,7 @@
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>11/08/2020 00:00</t>
+          <t>2020-08-11</t>
         </is>
       </c>
       <c r="N15" t="inlineStr">
@@ -1540,7 +1540,7 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>09/08/2020 13:55</t>
+          <t>2020-08-09</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
@@ -1565,7 +1565,7 @@
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>09/08/2020 13:55</t>
+          <t>2020-08-09</t>
         </is>
       </c>
       <c r="N16" t="inlineStr">
@@ -1618,7 +1618,7 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>18/08/2020 08:42</t>
+          <t>2020-08-18</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
@@ -1643,7 +1643,7 @@
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>18/08/2020 08:42</t>
+          <t>2020-08-18</t>
         </is>
       </c>
       <c r="N17" t="inlineStr">
@@ -1696,7 +1696,7 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>21/08/2020 00:00</t>
+          <t>2020-08-21</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
@@ -1721,7 +1721,7 @@
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>21/08/2020 00:00</t>
+          <t>2020-08-21</t>
         </is>
       </c>
       <c r="N18" t="inlineStr">
@@ -1774,7 +1774,7 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>21/08/2020 00:00</t>
+          <t>2020-08-21</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
@@ -1799,7 +1799,7 @@
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>21/08/2020 00:00</t>
+          <t>2020-08-21</t>
         </is>
       </c>
       <c r="N19" t="inlineStr">
@@ -1847,7 +1847,7 @@
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>29/08/2020 06:38</t>
+          <t>2020-08-29</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
@@ -1872,7 +1872,7 @@
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>29/08/2020 06:38</t>
+          <t>2020-08-29</t>
         </is>
       </c>
       <c r="N20" t="inlineStr">
@@ -1925,7 +1925,7 @@
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>20/08/2020 00:00</t>
+          <t>2020-08-20</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
@@ -1950,7 +1950,7 @@
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>20/08/2020 00:00</t>
+          <t>2020-08-20</t>
         </is>
       </c>
       <c r="N21" t="inlineStr">
@@ -1998,7 +1998,7 @@
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>30/08/2020 13:22</t>
+          <t>2020-08-30</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
@@ -2023,7 +2023,7 @@
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>30/08/2020 13:22</t>
+          <t>2020-08-30</t>
         </is>
       </c>
       <c r="N22" t="inlineStr">
@@ -2076,7 +2076,7 @@
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>15/08/2020 00:00</t>
+          <t>2020-08-15</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
@@ -2101,7 +2101,7 @@
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>15/08/2020 00:00</t>
+          <t>2020-08-15</t>
         </is>
       </c>
       <c r="N23" t="inlineStr">
@@ -2149,7 +2149,7 @@
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>30/08/2020 10:53</t>
+          <t>2020-08-30</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
@@ -2174,7 +2174,7 @@
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>30/08/2020 10:53</t>
+          <t>2020-08-30</t>
         </is>
       </c>
       <c r="N24" t="inlineStr">
@@ -2227,7 +2227,7 @@
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>15/08/2020 00:00</t>
+          <t>2020-08-15</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
@@ -2252,7 +2252,7 @@
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>15/08/2020 00:00</t>
+          <t>2020-08-15</t>
         </is>
       </c>
       <c r="N25" t="inlineStr">
@@ -2300,7 +2300,7 @@
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>05/09/2020 10:28</t>
+          <t>2020-09-05</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
@@ -2325,7 +2325,7 @@
       </c>
       <c r="M26" t="inlineStr">
         <is>
-          <t>05/09/2020 10:28</t>
+          <t>2020-09-05</t>
         </is>
       </c>
       <c r="N26" t="inlineStr">
@@ -2373,7 +2373,7 @@
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>06/09/2020 11:13</t>
+          <t>2020-09-06</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
@@ -2398,7 +2398,7 @@
       </c>
       <c r="M27" t="inlineStr">
         <is>
-          <t>06/09/2020 11:13</t>
+          <t>2020-09-06</t>
         </is>
       </c>
       <c r="N27" t="inlineStr">
@@ -2446,7 +2446,7 @@
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>06/09/2020 06:21</t>
+          <t>2020-09-06</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
@@ -2471,7 +2471,7 @@
       </c>
       <c r="M28" t="inlineStr">
         <is>
-          <t>06/09/2020 06:21</t>
+          <t>2020-09-06</t>
         </is>
       </c>
       <c r="N28" t="inlineStr">

--- a/analysis/metadata/P08_4/P08_4_minimal_metadata.xlsx
+++ b/analysis/metadata/P08_4/P08_4_minimal_metadata.xlsx
@@ -2132,10 +2132,10 @@
         </is>
       </c>
       <c r="C24">
-        <v>57.3958</v>
+        <v>57.3938</v>
       </c>
       <c r="D24">
-        <v>10.4311</v>
+        <v>10.4696</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>

--- a/analysis/metadata/P08_4/P08_4_minimal_metadata.xlsx
+++ b/analysis/metadata/P08_4/P08_4_minimal_metadata.xlsx
@@ -888,17 +888,7 @@
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>Heath and scrub</t>
-        </is>
-      </c>
-      <c r="O7" t="inlineStr">
-        <is>
-          <t>Temperate heath</t>
-        </is>
-      </c>
-      <c r="P7" t="inlineStr">
-        <is>
-          <t>Dry heath</t>
+          <t>Temperate heath and scrub</t>
         </is>
       </c>
     </row>
@@ -1044,17 +1034,7 @@
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>Heath and scrub</t>
-        </is>
-      </c>
-      <c r="O9" t="inlineStr">
-        <is>
-          <t>Temperate heath</t>
-        </is>
-      </c>
-      <c r="P9" t="inlineStr">
-        <is>
-          <t>Dry heath</t>
+          <t>Temperate heath and scrub</t>
         </is>
       </c>
     </row>
@@ -1341,17 +1321,7 @@
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t>Heath and scrub</t>
-        </is>
-      </c>
-      <c r="O13" t="inlineStr">
-        <is>
-          <t>Temperate heath</t>
-        </is>
-      </c>
-      <c r="P13" t="inlineStr">
-        <is>
-          <t>Wet heath</t>
+          <t>Temperate heath and scrub</t>
         </is>
       </c>
     </row>
@@ -1492,17 +1462,7 @@
       </c>
       <c r="N15" t="inlineStr">
         <is>
-          <t>Heath and scrub</t>
-        </is>
-      </c>
-      <c r="O15" t="inlineStr">
-        <is>
-          <t>Temperate heath</t>
-        </is>
-      </c>
-      <c r="P15" t="inlineStr">
-        <is>
-          <t>Dry heath</t>
+          <t>Temperate heath and scrub</t>
         </is>
       </c>
     </row>
@@ -1648,17 +1608,7 @@
       </c>
       <c r="N17" t="inlineStr">
         <is>
-          <t>Heath and scrub</t>
-        </is>
-      </c>
-      <c r="O17" t="inlineStr">
-        <is>
-          <t>Temperate heath</t>
-        </is>
-      </c>
-      <c r="P17" t="inlineStr">
-        <is>
-          <t>Wet heath</t>
+          <t>Temperate heath and scrub</t>
         </is>
       </c>
     </row>

--- a/analysis/metadata/P08_4/P08_4_minimal_metadata.xlsx
+++ b/analysis/metadata/P08_4/P08_4_minimal_metadata.xlsx
@@ -848,7 +848,7 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>4030</t>
+          <t>4130</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
@@ -889,6 +889,16 @@
       <c r="N7" t="inlineStr">
         <is>
           <t>Temperate heath and scrub</t>
+        </is>
+      </c>
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>Temperate heath</t>
+        </is>
+      </c>
+      <c r="P7" t="inlineStr">
+        <is>
+          <t>Dry heath</t>
         </is>
       </c>
     </row>
@@ -994,7 +1004,7 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>4030</t>
+          <t>4130</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
@@ -1035,6 +1045,16 @@
       <c r="N9" t="inlineStr">
         <is>
           <t>Temperate heath and scrub</t>
+        </is>
+      </c>
+      <c r="O9" t="inlineStr">
+        <is>
+          <t>Temperate heath</t>
+        </is>
+      </c>
+      <c r="P9" t="inlineStr">
+        <is>
+          <t>Dry heath</t>
         </is>
       </c>
     </row>
@@ -1286,7 +1306,7 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>4010</t>
+          <t>4110</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
@@ -1322,6 +1342,16 @@
       <c r="N13" t="inlineStr">
         <is>
           <t>Temperate heath and scrub</t>
+        </is>
+      </c>
+      <c r="O13" t="inlineStr">
+        <is>
+          <t>Temperate heath</t>
+        </is>
+      </c>
+      <c r="P13" t="inlineStr">
+        <is>
+          <t>Wet heath</t>
         </is>
       </c>
     </row>
@@ -1422,7 +1452,7 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>4030</t>
+          <t>4130</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
@@ -1463,6 +1493,16 @@
       <c r="N15" t="inlineStr">
         <is>
           <t>Temperate heath and scrub</t>
+        </is>
+      </c>
+      <c r="O15" t="inlineStr">
+        <is>
+          <t>Temperate heath</t>
+        </is>
+      </c>
+      <c r="P15" t="inlineStr">
+        <is>
+          <t>Dry heath</t>
         </is>
       </c>
     </row>
@@ -1568,7 +1608,7 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>4010</t>
+          <t>4110</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
@@ -1609,6 +1649,16 @@
       <c r="N17" t="inlineStr">
         <is>
           <t>Temperate heath and scrub</t>
+        </is>
+      </c>
+      <c r="O17" t="inlineStr">
+        <is>
+          <t>Temperate heath</t>
+        </is>
+      </c>
+      <c r="P17" t="inlineStr">
+        <is>
+          <t>Wet heath</t>
         </is>
       </c>
     </row>

--- a/analysis/metadata/P08_4/P08_4_minimal_metadata.xlsx
+++ b/analysis/metadata/P08_4/P08_4_minimal_metadata.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P28"/>
+  <dimension ref="A1:P17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1662,834 +1662,6 @@
         </is>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>MFD03760</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>soil</t>
-        </is>
-      </c>
-      <c r="C18">
-        <v>55.8878</v>
-      </c>
-      <c r="D18">
-        <v>8.711600000000001</v>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>natural_soil</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>6230</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>2020-08-21</t>
-        </is>
-      </c>
-      <c r="I18" t="inlineStr">
-        <is>
-          <t xml:space="preserve">am masterproject </t>
-        </is>
-      </c>
-      <c r="J18" t="inlineStr">
-        <is>
-          <t>P08_4</t>
-        </is>
-      </c>
-      <c r="K18" t="inlineStr">
-        <is>
-          <t>Soil</t>
-        </is>
-      </c>
-      <c r="L18" t="inlineStr">
-        <is>
-          <t>Natural</t>
-        </is>
-      </c>
-      <c r="M18" t="inlineStr">
-        <is>
-          <t>2020-08-21</t>
-        </is>
-      </c>
-      <c r="N18" t="inlineStr">
-        <is>
-          <t>Grassland formations</t>
-        </is>
-      </c>
-      <c r="O18" t="inlineStr">
-        <is>
-          <t>Semi-natural dry grasslands</t>
-        </is>
-      </c>
-      <c r="P18" t="inlineStr">
-        <is>
-          <t>Species-rich Nardus upland grassland</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>MFD03795</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>soil</t>
-        </is>
-      </c>
-      <c r="C19">
-        <v>56.1179</v>
-      </c>
-      <c r="D19">
-        <v>9.5999</v>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>natural_soil</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>6230</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>2020-08-21</t>
-        </is>
-      </c>
-      <c r="I19" t="inlineStr">
-        <is>
-          <t xml:space="preserve">am masterproject </t>
-        </is>
-      </c>
-      <c r="J19" t="inlineStr">
-        <is>
-          <t>P08_4</t>
-        </is>
-      </c>
-      <c r="K19" t="inlineStr">
-        <is>
-          <t>Soil</t>
-        </is>
-      </c>
-      <c r="L19" t="inlineStr">
-        <is>
-          <t>Natural</t>
-        </is>
-      </c>
-      <c r="M19" t="inlineStr">
-        <is>
-          <t>2020-08-21</t>
-        </is>
-      </c>
-      <c r="N19" t="inlineStr">
-        <is>
-          <t>Grassland formations</t>
-        </is>
-      </c>
-      <c r="O19" t="inlineStr">
-        <is>
-          <t>Semi-natural dry grasslands</t>
-        </is>
-      </c>
-      <c r="P19" t="inlineStr">
-        <is>
-          <t>Species-rich Nardus upland grassland</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>MFD03805</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>soil</t>
-        </is>
-      </c>
-      <c r="C20">
-        <v>56.641</v>
-      </c>
-      <c r="D20">
-        <v>9.5441</v>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>natural_soil</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>6230</t>
-        </is>
-      </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>2020-08-29</t>
-        </is>
-      </c>
-      <c r="I20" t="inlineStr">
-        <is>
-          <t xml:space="preserve">am masterproject </t>
-        </is>
-      </c>
-      <c r="J20" t="inlineStr">
-        <is>
-          <t>P08_4</t>
-        </is>
-      </c>
-      <c r="K20" t="inlineStr">
-        <is>
-          <t>Soil</t>
-        </is>
-      </c>
-      <c r="L20" t="inlineStr">
-        <is>
-          <t>Natural</t>
-        </is>
-      </c>
-      <c r="M20" t="inlineStr">
-        <is>
-          <t>2020-08-29</t>
-        </is>
-      </c>
-      <c r="N20" t="inlineStr">
-        <is>
-          <t>Grassland formations</t>
-        </is>
-      </c>
-      <c r="O20" t="inlineStr">
-        <is>
-          <t>Semi-natural dry grasslands</t>
-        </is>
-      </c>
-      <c r="P20" t="inlineStr">
-        <is>
-          <t>Species-rich Nardus upland grassland</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>MFD03808</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>soil</t>
-        </is>
-      </c>
-      <c r="C21">
-        <v>56.4588</v>
-      </c>
-      <c r="D21">
-        <v>8.8912</v>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>natural_soil</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>6230</t>
-        </is>
-      </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>2020-08-20</t>
-        </is>
-      </c>
-      <c r="I21" t="inlineStr">
-        <is>
-          <t xml:space="preserve">am masterproject </t>
-        </is>
-      </c>
-      <c r="J21" t="inlineStr">
-        <is>
-          <t>P08_4</t>
-        </is>
-      </c>
-      <c r="K21" t="inlineStr">
-        <is>
-          <t>Soil</t>
-        </is>
-      </c>
-      <c r="L21" t="inlineStr">
-        <is>
-          <t>Natural</t>
-        </is>
-      </c>
-      <c r="M21" t="inlineStr">
-        <is>
-          <t>2020-08-20</t>
-        </is>
-      </c>
-      <c r="N21" t="inlineStr">
-        <is>
-          <t>Grassland formations</t>
-        </is>
-      </c>
-      <c r="O21" t="inlineStr">
-        <is>
-          <t>Semi-natural dry grasslands</t>
-        </is>
-      </c>
-      <c r="P21" t="inlineStr">
-        <is>
-          <t>Species-rich Nardus upland grassland</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>MFD03846</t>
-        </is>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>soil</t>
-        </is>
-      </c>
-      <c r="C22">
-        <v>57.3889</v>
-      </c>
-      <c r="D22">
-        <v>10.4726</v>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>natural_soil</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>6230</t>
-        </is>
-      </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>2020-08-30</t>
-        </is>
-      </c>
-      <c r="I22" t="inlineStr">
-        <is>
-          <t xml:space="preserve">am masterproject </t>
-        </is>
-      </c>
-      <c r="J22" t="inlineStr">
-        <is>
-          <t>P08_4</t>
-        </is>
-      </c>
-      <c r="K22" t="inlineStr">
-        <is>
-          <t>Soil</t>
-        </is>
-      </c>
-      <c r="L22" t="inlineStr">
-        <is>
-          <t>Natural</t>
-        </is>
-      </c>
-      <c r="M22" t="inlineStr">
-        <is>
-          <t>2020-08-30</t>
-        </is>
-      </c>
-      <c r="N22" t="inlineStr">
-        <is>
-          <t>Grassland formations</t>
-        </is>
-      </c>
-      <c r="O22" t="inlineStr">
-        <is>
-          <t>Semi-natural dry grasslands</t>
-        </is>
-      </c>
-      <c r="P22" t="inlineStr">
-        <is>
-          <t>Species-rich Nardus upland grassland</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>MFD03855</t>
-        </is>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>soil</t>
-        </is>
-      </c>
-      <c r="C23">
-        <v>57.1857</v>
-      </c>
-      <c r="D23">
-        <v>9.775</v>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>natural_soil</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>6230</t>
-        </is>
-      </c>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>2020-08-15</t>
-        </is>
-      </c>
-      <c r="I23" t="inlineStr">
-        <is>
-          <t>am masterproject</t>
-        </is>
-      </c>
-      <c r="J23" t="inlineStr">
-        <is>
-          <t>P08_4</t>
-        </is>
-      </c>
-      <c r="K23" t="inlineStr">
-        <is>
-          <t>Soil</t>
-        </is>
-      </c>
-      <c r="L23" t="inlineStr">
-        <is>
-          <t>Natural</t>
-        </is>
-      </c>
-      <c r="M23" t="inlineStr">
-        <is>
-          <t>2020-08-15</t>
-        </is>
-      </c>
-      <c r="N23" t="inlineStr">
-        <is>
-          <t>Grassland formations</t>
-        </is>
-      </c>
-      <c r="O23" t="inlineStr">
-        <is>
-          <t>Semi-natural dry grasslands</t>
-        </is>
-      </c>
-      <c r="P23" t="inlineStr">
-        <is>
-          <t>Species-rich Nardus upland grassland</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>MFD03867</t>
-        </is>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>soil</t>
-        </is>
-      </c>
-      <c r="C24">
-        <v>57.3938</v>
-      </c>
-      <c r="D24">
-        <v>10.4696</v>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>natural_soil</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>6230</t>
-        </is>
-      </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>2020-08-30</t>
-        </is>
-      </c>
-      <c r="I24" t="inlineStr">
-        <is>
-          <t xml:space="preserve">am masterproject </t>
-        </is>
-      </c>
-      <c r="J24" t="inlineStr">
-        <is>
-          <t>P08_4</t>
-        </is>
-      </c>
-      <c r="K24" t="inlineStr">
-        <is>
-          <t>Soil</t>
-        </is>
-      </c>
-      <c r="L24" t="inlineStr">
-        <is>
-          <t>Natural</t>
-        </is>
-      </c>
-      <c r="M24" t="inlineStr">
-        <is>
-          <t>2020-08-30</t>
-        </is>
-      </c>
-      <c r="N24" t="inlineStr">
-        <is>
-          <t>Grassland formations</t>
-        </is>
-      </c>
-      <c r="O24" t="inlineStr">
-        <is>
-          <t>Semi-natural dry grasslands</t>
-        </is>
-      </c>
-      <c r="P24" t="inlineStr">
-        <is>
-          <t>Species-rich Nardus upland grassland</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>MFD03871</t>
-        </is>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>soil</t>
-        </is>
-      </c>
-      <c r="C25">
-        <v>56.8124</v>
-      </c>
-      <c r="D25">
-        <v>9.8317</v>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>natural_soil</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>6230</t>
-        </is>
-      </c>
-      <c r="G25" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>2020-08-15</t>
-        </is>
-      </c>
-      <c r="I25" t="inlineStr">
-        <is>
-          <t>am masterproject</t>
-        </is>
-      </c>
-      <c r="J25" t="inlineStr">
-        <is>
-          <t>P08_4</t>
-        </is>
-      </c>
-      <c r="K25" t="inlineStr">
-        <is>
-          <t>Soil</t>
-        </is>
-      </c>
-      <c r="L25" t="inlineStr">
-        <is>
-          <t>Natural</t>
-        </is>
-      </c>
-      <c r="M25" t="inlineStr">
-        <is>
-          <t>2020-08-15</t>
-        </is>
-      </c>
-      <c r="N25" t="inlineStr">
-        <is>
-          <t>Grassland formations</t>
-        </is>
-      </c>
-      <c r="O25" t="inlineStr">
-        <is>
-          <t>Semi-natural dry grasslands</t>
-        </is>
-      </c>
-      <c r="P25" t="inlineStr">
-        <is>
-          <t>Species-rich Nardus upland grassland</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>MFD03908</t>
-        </is>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>soil</t>
-        </is>
-      </c>
-      <c r="C26">
-        <v>56.5995</v>
-      </c>
-      <c r="D26">
-        <v>10.0138</v>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>natural_soil</t>
-        </is>
-      </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>6230</t>
-        </is>
-      </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>2020-09-05</t>
-        </is>
-      </c>
-      <c r="I26" t="inlineStr">
-        <is>
-          <t xml:space="preserve">am masterproject </t>
-        </is>
-      </c>
-      <c r="J26" t="inlineStr">
-        <is>
-          <t>P08_4</t>
-        </is>
-      </c>
-      <c r="K26" t="inlineStr">
-        <is>
-          <t>Soil</t>
-        </is>
-      </c>
-      <c r="L26" t="inlineStr">
-        <is>
-          <t>Natural</t>
-        </is>
-      </c>
-      <c r="M26" t="inlineStr">
-        <is>
-          <t>2020-09-05</t>
-        </is>
-      </c>
-      <c r="N26" t="inlineStr">
-        <is>
-          <t>Grassland formations</t>
-        </is>
-      </c>
-      <c r="O26" t="inlineStr">
-        <is>
-          <t>Semi-natural dry grasslands</t>
-        </is>
-      </c>
-      <c r="P26" t="inlineStr">
-        <is>
-          <t>Species-rich Nardus upland grassland</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>MFD03970</t>
-        </is>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>soil</t>
-        </is>
-      </c>
-      <c r="C27">
-        <v>56.9263</v>
-      </c>
-      <c r="D27">
-        <v>9.441000000000001</v>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>natural_soil</t>
-        </is>
-      </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>6230</t>
-        </is>
-      </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>2020-09-06</t>
-        </is>
-      </c>
-      <c r="I27" t="inlineStr">
-        <is>
-          <t xml:space="preserve">am masterproject </t>
-        </is>
-      </c>
-      <c r="J27" t="inlineStr">
-        <is>
-          <t>P08_4</t>
-        </is>
-      </c>
-      <c r="K27" t="inlineStr">
-        <is>
-          <t>Soil</t>
-        </is>
-      </c>
-      <c r="L27" t="inlineStr">
-        <is>
-          <t>Natural</t>
-        </is>
-      </c>
-      <c r="M27" t="inlineStr">
-        <is>
-          <t>2020-09-06</t>
-        </is>
-      </c>
-      <c r="N27" t="inlineStr">
-        <is>
-          <t>Grassland formations</t>
-        </is>
-      </c>
-      <c r="O27" t="inlineStr">
-        <is>
-          <t>Semi-natural dry grasslands</t>
-        </is>
-      </c>
-      <c r="P27" t="inlineStr">
-        <is>
-          <t>Species-rich Nardus upland grassland</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>MFD03973</t>
-        </is>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>soil</t>
-        </is>
-      </c>
-      <c r="C28">
-        <v>56.9034</v>
-      </c>
-      <c r="D28">
-        <v>9.574</v>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>natural_soil</t>
-        </is>
-      </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>6230</t>
-        </is>
-      </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>2020-09-06</t>
-        </is>
-      </c>
-      <c r="I28" t="inlineStr">
-        <is>
-          <t xml:space="preserve">am masterproject </t>
-        </is>
-      </c>
-      <c r="J28" t="inlineStr">
-        <is>
-          <t>P08_4</t>
-        </is>
-      </c>
-      <c r="K28" t="inlineStr">
-        <is>
-          <t>Soil</t>
-        </is>
-      </c>
-      <c r="L28" t="inlineStr">
-        <is>
-          <t>Natural</t>
-        </is>
-      </c>
-      <c r="M28" t="inlineStr">
-        <is>
-          <t>2020-09-06</t>
-        </is>
-      </c>
-      <c r="N28" t="inlineStr">
-        <is>
-          <t>Grassland formations</t>
-        </is>
-      </c>
-      <c r="O28" t="inlineStr">
-        <is>
-          <t>Semi-natural dry grasslands</t>
-        </is>
-      </c>
-      <c r="P28" t="inlineStr">
-        <is>
-          <t>Species-rich Nardus upland grassland</t>
-        </is>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
